--- a/db.json.xlsx
+++ b/db.json.xlsx
@@ -12,10 +12,11 @@
     <sheet name="vocabulary" sheetId="3" r:id="rId3"/>
     <sheet name="person" sheetId="4" r:id="rId4"/>
     <sheet name="lab" sheetId="5" r:id="rId5"/>
-    <sheet name="project" sheetId="6" r:id="rId6"/>
-    <sheet name="experiment" sheetId="7" r:id="rId7"/>
-    <sheet name="funding" sheetId="8" r:id="rId8"/>
-    <sheet name="irb" sheetId="9" r:id="rId9"/>
+    <sheet name="funding" sheetId="6" r:id="rId6"/>
+    <sheet name="irb" sheetId="7" r:id="rId7"/>
+    <sheet name="sample" sheetId="8" r:id="rId8"/>
+    <sheet name="project" sheetId="9" r:id="rId9"/>
+    <sheet name="experiment" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -348,7 +349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,6 +406,16 @@
           <t>vocab_scope</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>list_ordinal</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>detail_ordinal</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -457,6 +468,16 @@
           <t/>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -509,6 +530,16 @@
           <t/>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -561,6 +592,16 @@
           <t/>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -613,6 +654,16 @@
           <t/>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -665,6 +716,16 @@
           <t/>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -717,6 +778,16 @@
           <t/>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -769,6 +840,16 @@
           <t/>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -821,6 +902,16 @@
           <t/>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -873,6 +964,16 @@
           <t/>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -925,6 +1026,16 @@
           <t/>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -977,6 +1088,16 @@
           <t/>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1029,6 +1150,16 @@
           <t/>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1081,6 +1212,16 @@
           <t/>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1133,36 +1274,46 @@
           <t/>
         </is>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>scope</t>
+          <t>list_ordinal</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>vocabulary</t>
+          <t>field</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Scope</t>
+          <t>List Ordinal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Vocabulary scope</t>
+          <t>Order for field to appear in list views</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1172,7 +1323,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>required</t>
+          <t/>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1183,38 +1334,48 @@
       <c r="J16" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>key</t>
+          <t>detail_ordinal</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>vocabulary</t>
+          <t>field</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>key</t>
+          <t>Detail Ordinal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Vocabulary key</t>
+          <t>Order for field to appear in detail views</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1224,7 +1385,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>required</t>
+          <t/>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1235,13 +1396,23 @@
       <c r="J17" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>scope</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1251,12 +1422,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>Scope</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Vocabulary title</t>
+          <t>Vocabulary scope</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1287,80 +1458,100 @@
       <c r="J18" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>key</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>vocabulary</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>key</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Person ID</t>
+          <t>Vocabulary key</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>person</t>
+          <t/>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t/>
+          <t>required</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>first_name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>vocabulary</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>First name</t>
+          <t>Vocabulary title</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1380,7 +1571,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>required;name</t>
+          <t>required</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1391,13 +1582,23 @@
       <c r="J20" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>last_name</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1407,49 +1608,59 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Last name</t>
+          <t>Person ID</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t/>
+          <t>person</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>required;name</t>
+          <t/>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>lab_id</t>
+          <t>first_name</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1459,32 +1670,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Lab ID</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Lab ID the person belongs to</t>
+          <t>First name</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>lab</t>
+          <t/>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>required;name</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1495,100 +1706,120 @@
       <c r="J22" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>last_name</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>lab</t>
+          <t>person</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Lab ID</t>
+          <t>Last name</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>lab</t>
+          <t/>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t/>
+          <t>required;name</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>lab_id</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Lab ID</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Lab ID the person belongs to</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>lab</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Name of the Lab</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t/>
+          <t>required</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1599,13 +1830,23 @@
       <c r="J24" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>lab_head_id</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1615,12 +1856,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Lab Head ID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ID of the person leading the lab</t>
+          <t>Lab ID</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1635,7 +1876,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>lab</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1645,49 +1886,59 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>funding</t>
+          <t>lab</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Funding ID</t>
+          <t>Name of the Lab</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>funding</t>
+          <t/>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1697,49 +1948,59 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>lab_head_id</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>funding</t>
+          <t>lab</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Lab Head ID</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Name of the funding source</t>
+          <t>ID of the person leading the lab</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t/>
+          <t>person</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1755,6 +2016,16 @@
       <c r="J27" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1766,7 +2037,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>irb</t>
+          <t>funding</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1776,7 +2047,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>IRB ID</t>
+          <t>Funding ID</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1791,7 +2062,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>irb</t>
+          <t>funding</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1807,28 +2078,38 @@
       <c r="J28" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>irb_id</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>irb</t>
+          <t>funding</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>IRB ID</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>IRB tracking id</t>
+          <t>Name of the funding source</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1859,13 +2140,23 @@
       <c r="J29" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>funding_ids</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1875,27 +2166,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Funding</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>IRB Funding source ID</t>
+          <t>IRB ID</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>arraystring</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>funding</t>
+          <t>irb</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1905,19 +2196,29 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>irb_id</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1927,12 +2228,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>IRB ID</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Type of IRB</t>
+          <t>IRB tracking id</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1942,7 +2243,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>vocabulary</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1962,14 +2263,24 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>irb.type</t>
+          <t/>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>lab_id</t>
+          <t>funding_ids</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1979,27 +2290,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Lab ID</t>
+          <t>Funding</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Lab ID the IRB belongs to</t>
+          <t>IRB Funding source ID</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>arraystring</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>list</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t/>
+          <t>funding</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2015,13 +2326,23 @@
       <c r="J32" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>secondary_irb_id</t>
+          <t>type</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2031,27 +2352,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Secondary IRB ID</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Secondary IRB</t>
+          <t>Type of IRB</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>vocabulary</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>irb</t>
+          <t/>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2066,29 +2387,39 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t/>
+          <t>irb.type</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>lab_id</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>irb</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>Lab ID</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>Lab ID the IRB belongs to</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2098,12 +2429,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>project</t>
+          <t/>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2113,49 +2444,59 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>start_date</t>
+          <t>secondary_irb_id</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>irb</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Start Date</t>
+          <t>Secondary IRB ID</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Start Date</t>
+          <t>Secondary IRB</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t/>
+          <t>irb</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2171,13 +2512,23 @@
       <c r="J35" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>pi_id</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2187,12 +2538,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Principal Investigator ID</t>
+          <t>Project ID</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Principal Investigator</t>
+          <t>Project ID</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2202,12 +2553,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>project</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2217,19 +2568,29 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>primary_irb_id</t>
+          <t>start_date</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2239,27 +2600,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Primary IRB ID</t>
+          <t>Start Date</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Primary IRB ID</t>
+          <t>Start Date</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>irb</t>
+          <t/>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2275,13 +2636,23 @@
       <c r="J37" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>lsp_irb_id</t>
+          <t>pi_id</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2291,12 +2662,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LSP IRB ID</t>
+          <t>Principal Investigator ID</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LSP IRB ID</t>
+          <t>Principal Investigator</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2311,7 +2682,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>irb</t>
+          <t>person</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2327,13 +2698,23 @@
       <c r="J38" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>protocol_io</t>
+          <t>primary_irb_id</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2343,17 +2724,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Protocol.io</t>
+          <t>Primary IRB ID</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Protocol.io</t>
+          <t>Primary IRB ID</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2363,7 +2744,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t/>
+          <t>irb</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2379,13 +2760,23 @@
       <c r="J39" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>scientist_samples</t>
+          <t>lsp_irb_id</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2395,17 +2786,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Scientist samples received from</t>
+          <t>LSP IRB ID</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Scientist samples received from</t>
+          <t>LSP IRB ID</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2415,7 +2806,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t/>
+          <t>irb</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2431,13 +2822,23 @@
       <c r="J40" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>pathology_core</t>
+          <t>protocol_io</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2447,12 +2848,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Pathology core</t>
+          <t>Protocol.io</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Pathology core</t>
+          <t>Protocol.io</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2483,13 +2884,23 @@
       <c r="J41" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>primary_contact</t>
+          <t>scientist_samples</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2499,12 +2910,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Co PI</t>
+          <t>Scientist samples received from</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Internal LSP coPI/Primary contact</t>
+          <t>Scientist samples received from</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2535,13 +2946,23 @@
       <c r="J42" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>pathology_core</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2551,12 +2972,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Grant</t>
+          <t>Pathology core</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Grant</t>
+          <t>Pathology core</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2587,13 +3008,23 @@
       <c r="J43" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>purpose</t>
+          <t>primary_contact</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2603,12 +3034,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Purpose</t>
+          <t>Co PI</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Purpose</t>
+          <t>Internal LSP coPI/Primary contact</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2639,13 +3070,23 @@
       <c r="J44" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>organism</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2655,12 +3096,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Organism</t>
+          <t>Grant</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Organism</t>
+          <t>Grant</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2691,13 +3132,23 @@
       <c r="J45" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>sample_size</t>
+          <t>purpose</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2707,22 +3158,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sample Size</t>
+          <t>Purpose</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sample Size</t>
+          <t>Purpose</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2743,13 +3194,23 @@
       <c r="J46" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>cycles</t>
+          <t>organism</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2759,22 +3220,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CyCIF cycles</t>
+          <t>Organism</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CyCIF cycles</t>
+          <t>Organism</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2795,13 +3256,23 @@
       <c r="J47" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>comments</t>
+          <t>sample_size</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2811,22 +3282,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Comments</t>
+          <t>Sample Size</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Comments</t>
+          <t>Sample Size</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2847,28 +3318,38 @@
       <c r="J48" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>cycles</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>experiment</t>
+          <t>project</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Experiment ID</t>
+          <t>CyCIF cycles</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Experiment ID</t>
+          <t>CyCIF cycles</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2883,7 +3364,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>experiment</t>
+          <t/>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2893,39 +3374,49 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>comments</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>experiment</t>
+          <t>project</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Experiment Number</t>
+          <t>Comments</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Experiment Number</t>
+          <t>Comments</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>string</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2945,19 +3436,29 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>project_id</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2967,12 +3468,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>Experiment ID</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>Experiment ID</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2982,12 +3483,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>experiment</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3003,13 +3504,23 @@
       <c r="J51" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>date_initiated</t>
+          <t>number</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3019,22 +3530,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Date Initiated</t>
+          <t>Experiment Number</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Date Initiated</t>
+          <t>Experiment Number</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3049,39 +3560,49 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>slide_id</t>
+          <t>project_id</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>experiment</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Slide ID</t>
+          <t>Project ID</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Slide ID</t>
+          <t>Project ID</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3091,7 +3612,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t/>
+          <t>project</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3101,34 +3622,44 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>checkout_date</t>
+          <t>date_initiated</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>experiment</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Checkout Date</t>
+          <t>Date Initiated</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Checkout Date</t>
+          <t>Date Initiated</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3138,7 +3669,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3159,13 +3690,23 @@
       <c r="J54" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>inventory_date</t>
+          <t>slide_id</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3175,12 +3716,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Inventory Date</t>
+          <t>Slide ID</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Inventory Date</t>
+          <t>Slide ID</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3211,13 +3752,23 @@
       <c r="J55" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>project_number</t>
+          <t>checkout_date</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3227,12 +3778,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Project Number</t>
+          <t>Checkout Date</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Project number</t>
+          <t>Checkout Date</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3263,13 +3814,23 @@
       <c r="J56" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>study_name</t>
+          <t>inventory_date</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3279,12 +3840,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Study Name</t>
+          <t>Inventory Date</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Study Name</t>
+          <t>Inventory Date</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3315,13 +3876,23 @@
       <c r="J57" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>collaborator_name</t>
+          <t>project_number</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3331,12 +3902,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Collaborator Name</t>
+          <t>Project Number</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Collaborator Name</t>
+          <t>Project number</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3367,13 +3938,23 @@
       <c r="J58" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>assigned_to</t>
+          <t>study_name</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3383,12 +3964,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Assigned To</t>
+          <t>Study Name</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Assigned To</t>
+          <t>Study Name</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3419,13 +4000,23 @@
       <c r="J59" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>primary_irb</t>
+          <t>collaborator_name</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3435,12 +4026,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Primary IRB</t>
+          <t>Collaborator Name</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Primary IRB</t>
+          <t>Collaborator Name</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3471,13 +4062,23 @@
       <c r="J60" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>secondary_irb</t>
+          <t>assigned_to</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3487,12 +4088,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Secondary IRB</t>
+          <t>Assigned To</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Secondary IRB</t>
+          <t>Assigned To</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3523,13 +4124,23 @@
       <c r="J61" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>leica_barcode</t>
+          <t>primary_irb</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3539,12 +4150,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Leica Barcode</t>
+          <t>Primary IRB</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Leica Barcode</t>
+          <t>Primary IRB</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3575,13 +4186,23 @@
       <c r="J62" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>organism</t>
+          <t>secondary_irb</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3591,12 +4212,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Organism</t>
+          <t>Secondary IRB</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Organism</t>
+          <t>Secondary IRB</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3627,13 +4248,23 @@
       <c r="J63" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>tissue</t>
+          <t>leica_barcode</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3643,12 +4274,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Tissue</t>
+          <t>Leica Barcode</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tissue</t>
+          <t>Leica Barcode</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3679,13 +4310,23 @@
       <c r="J64" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>pathology</t>
+          <t>organism</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3695,12 +4336,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Pathology</t>
+          <t>Organism</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Pathology</t>
+          <t>Organism</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3731,58 +4372,435 @@
       <c r="J65" t="inlineStr">
         <is>
           <t/>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>tissue</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Tissue</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Tissue</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>pathology</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Pathology</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Pathology</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>stain_type</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Stain Type</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>Stain Type</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>true</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>project_id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>date_initiated</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1/10/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2/10/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/10/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1/10/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2/10/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3/10/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1/10/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2/10/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3/10/2019</t>
         </is>
       </c>
     </row>
@@ -3793,7 +4811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3868,7 +4886,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>vocabulary</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3878,19 +4896,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Person</t>
+          <t>Vocabulary</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A person involved with the project</t>
+          <t>A vocabulary description</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lab</t>
+          <t>person</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3900,19 +4918,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Person</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lab at HMS</t>
+          <t>A person involved with the project</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>funding</t>
+          <t>lab</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3922,19 +4940,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Funding</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Grant or source of funding</t>
+          <t>Lab at HMS</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>irb</t>
+          <t>funding</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3944,19 +4962,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>IRB</t>
+          <t>Funding</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>IRB</t>
+          <t>Grant or source of funding</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>irb</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3966,19 +4984,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sample</t>
+          <t>IRB</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sample or slide</t>
+          <t>IRB</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3988,19 +5006,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Project</t>
+          <t>Sample</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Project to organize experiments</t>
+          <t>Sample or slide</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>experiment</t>
+          <t>project</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4010,19 +5028,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Experiment</t>
+          <t>Project</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Experiment to track cycles</t>
+          <t>Project to organize experiments</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cycle</t>
+          <t>experiment</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4032,19 +5050,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cycle</t>
+          <t>Experiment</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Record of one staining and imaging cycle with multiple channels</t>
+          <t>Experiment to track cycles</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>microscope</t>
+          <t>cycle</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4054,32 +5072,54 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Microscope</t>
+          <t>Cycle</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Microscope description with channels</t>
+          <t>Record of one staining and imaging cycle with multiple channels</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>microscope</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Microscope</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Microscope description with channels</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>channel</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Channel</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>A wavelength delimited channel measured from a sample by the microscope</t>
         </is>
@@ -4898,868 +5938,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>start_date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>pi_id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>primary_irb_id</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>lsp_irb_id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>protocol_io</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>scientist_samples</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>pathology_core</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>primary_contact</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>grant</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>purpose</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>organism</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>sample_size</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>cycles</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1/14/2019</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Standard Tissue CycIF protocol</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Jane Goodall</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>HMS</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Marie Curie</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Ludwig</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Xenograft clones detection</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>breast tissue</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3/104/2018</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Standard Tissue CycIF protocol</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>V Neumann</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>HMS</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Marie Curie</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Ludwig</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>t-CyCIF training</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>lung tissue</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1/14/2017</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Standard Tissue CycIF protocol</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Louis Pasteur</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>HMS</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Marie Curie</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Ludwig</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>t-CyCIF training</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>skin tissue</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2/14/2019</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Standard Tissue CycIF protocol</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Ben Franklin</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>HMS</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Marie Curie</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Ludwig</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>t-CyCIF training</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>stomach tissue</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>4/3/2019</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Standard Tissue CycIF protocol</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Peter Higgs</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>HMS</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Marie Curie</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Ludwig</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>t-CyCIF training</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>breast tissue</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1/14/2019</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Standard Tissue CycIF protocol</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>V Ramakrishnan</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>HMS</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Marie Curie</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Ludwig</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>t-CyCIF training</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>breast tissue</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1/14/2019</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Standard Tissue CycIF protocol</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Jane Goodall</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>HMS</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Marie Curie</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Ludwig</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>t-CyCIF training</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>human</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>breast tissue</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>project_id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>date_initiated</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1/10/2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2/10/2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3/10/2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1/10/2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2/10/2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3/10/2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1/10/2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2/10/2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3/10/2019</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5819,7 +5997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -6086,4 +6264,718 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>slide_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>checkout_date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>inventory_date</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>project_number</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>study_name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>collaborator_name</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>assigned_to</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>primary_irb</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>secondary_irb</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>leica_barcode</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>organism</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>tissue</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>pathology</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>stain_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>start_date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pi_id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>primary_irb_id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>lsp_irb_id</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>protocol_io</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>scientist_samples</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>pathology_core</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>primary_contact</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>grant</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>purpose</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>organism</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>sample_size</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>cycles</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1/14/2019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Standard Tissue CycIF protocol</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Jane Goodall</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>HMS</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Marie Curie</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Ludwig</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Xenograft clones detection</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>breast tissue</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3/104/2018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Standard Tissue CycIF protocol</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>V Neumann</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>HMS</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Marie Curie</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Ludwig</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>t-CyCIF training</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>lung tissue</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1/14/2017</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Standard Tissue CycIF protocol</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Louis Pasteur</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>HMS</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Marie Curie</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Ludwig</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>t-CyCIF training</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>skin tissue</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2/14/2019</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Standard Tissue CycIF protocol</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Ben Franklin</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>HMS</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Marie Curie</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Ludwig</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>t-CyCIF training</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>stomach tissue</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4/3/2019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Standard Tissue CycIF protocol</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Peter Higgs</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>HMS</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Marie Curie</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Ludwig</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>t-CyCIF training</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>breast tissue</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1/14/2019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Standard Tissue CycIF protocol</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>V Ramakrishnan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>HMS</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Marie Curie</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Ludwig</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>t-CyCIF training</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>breast tissue</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1/14/2019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Standard Tissue CycIF protocol</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Jane Goodall</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>HMS</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Marie Curie</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Ludwig</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>t-CyCIF training</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>breast tissue</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/db.json.xlsx
+++ b/db.json.xlsx
@@ -20,8 +20,8 @@
     <sheet name="experiment" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="microscope" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="channel" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="cycle_image" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="cycle_image_channel" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="cycle" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="cycle_channel" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="921">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -515,6 +515,9 @@
     <t xml:space="preserve">microscope</t>
   </si>
   <si>
+    <t xml:space="preserve">microscope.name</t>
+  </si>
+  <si>
     <t xml:space="preserve">slide_id</t>
   </si>
   <si>
@@ -599,10 +602,73 @@
     <t xml:space="preserve">Name of the microscope</t>
   </si>
   <si>
-    <t xml:space="preserve">magnification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnification</t>
+    <t xml:space="preserve">objectives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ordinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel Ordinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">channel.filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reagent_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reagent ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reagent ID (from Reagent Tracker)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiment_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Imaging Started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycle.purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycle.protocol</t>
   </si>
   <si>
     <t xml:space="preserve">channels</t>
@@ -611,87 +677,36 @@
     <t xml:space="preserve">Channels</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of channels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ordinal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel Ordinal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">channel.filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reagent_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reagent ID (from Reagent Tracker)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">experiment_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cycle_image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordinal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_started</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Imaging Started</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cycle_image.purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cycle_image.protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cycle_image_channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cycle_image_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cycle Image ID</t>
+    <t xml:space="preserve">cycle_channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycle_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cycle ID</t>
   </si>
   <si>
     <t xml:space="preserve">channel_id</t>
   </si>
   <si>
+    <t xml:space="preserve">antibody_stain_lsp_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antibody/Stain (LSP #)</t>
+  </si>
+  <si>
     <t xml:space="preserve">dilution</t>
   </si>
   <si>
-    <t xml:space="preserve">Dilution</t>
+    <t xml:space="preserve">Dilution (1:X)</t>
   </si>
   <si>
     <t xml:space="preserve">exposure_time</t>
   </si>
   <si>
+    <t xml:space="preserve">Exposure Time</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exposure Time (min)</t>
   </si>
   <si>
@@ -737,7 +752,7 @@
     <t xml:space="preserve">Pubchem CID</t>
   </si>
   <si>
-    <t xml:space="preserve">https://pubchem.ncbi.nlm.nih.gov/compound/{pubchem_cid}</t>
+    <t xml:space="preserve">https://pubchem.ncbi.nlm.nih.gov/compound/${pubchem_cid}</t>
   </si>
   <si>
     <t xml:space="preserve">cas_number</t>
@@ -929,6 +944,15 @@
     <t xml:space="preserve">Experiment to track cycles</t>
   </si>
   <si>
+    <t xml:space="preserve">acquisition_plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planned use of a microscope to acquire images</t>
+  </si>
+  <si>
     <t xml:space="preserve">Microscope</t>
   </si>
   <si>
@@ -941,25 +965,28 @@
     <t xml:space="preserve">A wavelength delimited channel measured from a sample by the microscope</t>
   </si>
   <si>
-    <t xml:space="preserve">Cycle Image</t>
+    <t xml:space="preserve">Cycle</t>
   </si>
   <si>
     <t xml:space="preserve">Record of one staining and imaging cycle with multiple channels</t>
   </si>
   <si>
-    <t xml:space="preserve">Image Channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One channel of an image for one cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canonical</t>
+    <t xml:space="preserve">Cycle Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One image channel in a cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reagent</t>
   </si>
   <si>
     <t xml:space="preserve">Reagent tracker canonical</t>
   </si>
   <si>
-    <t xml:space="preserve">Canonical Search</t>
+    <t xml:space="preserve">Reagent Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canonical Reagent Search</t>
   </si>
   <si>
     <t xml:space="preserve">dapi</t>
@@ -2717,16 +2744,52 @@
     <t xml:space="preserve">3/10/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Rarecyte CF6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rarecyte HT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InCell6000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InCell7000</t>
+    <t xml:space="preserve">RareCyte CF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x/0.3NA, 10x/0.45NA, 20x/0.45NA, 20x/0.75NA, 40x/0.6NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAPI, FITC, Cy3, Q625, Cy5, Q800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RareCyte CF25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x/0.3NA, 20x/0.75NA, 40x/0.6NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InCell 6000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x/0.45NA, 20x/0.75NA, 40x/0.95NA, 60x/0.95NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAPI, FITC, dsRed, Cy5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IXM-C 92 (fixed sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAPI, FITC, Cy3, TexasRed, Cy5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IXM-C 94 (live sample)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE Cytell (ARM142)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x/0.45NA, 20x/0.75NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAPI, FITC, Cy3, Cy5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE Cytell (WAB444)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x/0.13NA,10x/0.45NA</t>
   </si>
   <si>
     <t xml:space="preserve">04/01/2019</t>
@@ -2824,7 +2887,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2832,12 +2895,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2857,20 +2920,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:M126"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F96" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A96" activeCellId="0" sqref="A96"/>
-      <selection pane="bottomRight" activeCell="H97" activeCellId="0" sqref="H97"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="I43" activeCellId="0" sqref="I43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4182,6 +4245,9 @@
       <c r="F42" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I42" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="J42" s="0" t="s">
         <v>27</v>
       </c>
@@ -4598,7 +4664,7 @@
         <v>158</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>16</v>
@@ -4606,28 +4672,32 @@
       <c r="G56" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="J56" s="3" t="s">
-        <v>27</v>
+      <c r="J56" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>160</v>
       </c>
       <c r="L56" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M56" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>16</v>
@@ -4647,16 +4717,16 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>16</v>
@@ -4676,16 +4746,16 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>16</v>
@@ -4705,16 +4775,16 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>16</v>
@@ -4734,16 +4804,16 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>16</v>
@@ -4763,16 +4833,16 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>16</v>
@@ -4792,16 +4862,16 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>16</v>
@@ -4821,16 +4891,16 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>16</v>
@@ -4850,10 +4920,10 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>109</v>
@@ -4879,16 +4949,16 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>16</v>
@@ -4911,7 +4981,7 @@
         <v>138</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>139</v>
@@ -4937,16 +5007,16 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>16</v>
@@ -4966,16 +5036,16 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>16</v>
@@ -4995,16 +5065,16 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>16</v>
@@ -5065,7 +5135,7 @@
         <v>14</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>16</v>
@@ -5088,22 +5158,22 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>159</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I73" s="0" t="s">
         <v>26</v>
@@ -5120,22 +5190,22 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>159</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>192</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I74" s="0" t="s">
         <v>26</v>
@@ -5327,10 +5397,10 @@
         <v>20</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J80" s="0" t="s">
         <v>17</v>
@@ -5385,10 +5455,10 @@
         <v>150</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>149</v>
@@ -5451,8 +5521,8 @@
       <c r="F84" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J84" s="0" t="s">
-        <v>17</v>
+      <c r="J84" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="K84" s="0" t="s">
         <v>208</v>
@@ -5483,8 +5553,8 @@
       <c r="F85" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J85" s="0" t="s">
-        <v>17</v>
+      <c r="J85" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="K85" s="0" t="s">
         <v>211</v>
@@ -5498,45 +5568,45 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J86" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L86" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M86" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="J86" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M86" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>22</v>
@@ -5548,10 +5618,10 @@
         <v>17</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5559,13 +5629,13 @@
         <v>215</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="E88" s="0" t="s">
         <v>22</v>
@@ -5573,31 +5643,28 @@
       <c r="F88" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G88" s="0" t="s">
-        <v>193</v>
-      </c>
       <c r="J88" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="E89" s="0" t="s">
         <v>22</v>
@@ -5605,14 +5672,17 @@
       <c r="F89" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="G89" s="0" t="s">
+        <v>193</v>
+      </c>
       <c r="J89" s="0" t="s">
         <v>17</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5620,7 +5690,7 @@
         <v>218</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>219</v>
@@ -5629,230 +5699,227 @@
         <v>219</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="J90" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J90" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>222</v>
-      </c>
       <c r="D91" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J91" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="J91" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="J92" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M92" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="M93" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C92" s="0" t="s">
+      <c r="B94" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C94" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D94" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="E94" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F92" s="0" t="s">
+      <c r="F94" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G92" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="J92" s="1" t="n">
+      <c r="G94" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="J94" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L92" s="0" t="n">
+      <c r="L94" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M92" s="0" t="n">
+      <c r="M94" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F93" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J93" s="1" t="n">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J95" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L93" s="0" t="n">
+      <c r="L95" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M93" s="0" t="n">
+      <c r="M95" s="0" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J94" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L94" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M94" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F95" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="J95" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L95" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="M95" s="0" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="J96" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L96" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M96" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c r="J97" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L97" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M97" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5860,7 +5927,7 @@
         <v>235</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>236</v>
@@ -5869,27 +5936,27 @@
         <v>236</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="J98" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L98" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M98" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>237</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>238</v>
@@ -5903,25 +5970,25 @@
       <c r="F99" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H99" s="0" t="s">
+      <c r="H99" s="4" t="s">
         <v>239</v>
       </c>
       <c r="J99" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L99" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M99" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>240</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>241</v>
@@ -5930,59 +5997,59 @@
         <v>241</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="0" t="s">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="J100" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L100" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M100" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C101" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="B101" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C101" s="4" t="s">
+      <c r="D101" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="0" t="s">
         <v>244</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="J101" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L101" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M101" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>245</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>246</v>
@@ -5996,28 +6063,31 @@
       <c r="F102" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="H102" s="0" t="s">
+        <v>247</v>
+      </c>
       <c r="J102" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L102" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M102" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>248</v>
+        <v>228</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="E103" s="0" t="s">
         <v>16</v>
@@ -6029,24 +6099,24 @@
         <v>1</v>
       </c>
       <c r="L103" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M103" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E104" s="0" t="s">
         <v>16</v>
@@ -6058,24 +6128,24 @@
         <v>1</v>
       </c>
       <c r="L104" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M104" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>252</v>
+        <v>228</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>253</v>
       </c>
       <c r="E105" s="0" t="s">
         <v>16</v>
@@ -6087,24 +6157,24 @@
         <v>1</v>
       </c>
       <c r="L105" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M105" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>254</v>
+        <v>228</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>255</v>
       </c>
       <c r="E106" s="0" t="s">
         <v>16</v>
@@ -6116,53 +6186,53 @@
         <v>1</v>
       </c>
       <c r="L106" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M106" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="J107" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L107" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M107" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E108" s="0" t="s">
         <v>16</v>
@@ -6174,82 +6244,82 @@
         <v>1</v>
       </c>
       <c r="L108" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M108" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>260</v>
+        <v>228</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="J109" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L109" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M109" s="0" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>262</v>
+        <v>228</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="E110" s="0" t="s">
         <v>16</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="J110" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L110" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M110" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E111" s="0" t="s">
         <v>16</v>
@@ -6261,140 +6331,140 @@
         <v>1</v>
       </c>
       <c r="L111" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M111" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="J112" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L112" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M112" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="J113" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L113" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M113" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>146</v>
+        <v>270</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>147</v>
+        <v>271</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>147</v>
+        <v>271</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="J114" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L114" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M114" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="J115" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L115" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M115" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>271</v>
+        <v>146</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>272</v>
+        <v>147</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>272</v>
+        <v>147</v>
       </c>
       <c r="E116" s="0" t="s">
         <v>16</v>
@@ -6406,24 +6476,24 @@
         <v>1</v>
       </c>
       <c r="L116" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M116" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E117" s="0" t="s">
         <v>16</v>
@@ -6435,24 +6505,24 @@
         <v>1</v>
       </c>
       <c r="L117" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M117" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>102</v>
+        <v>276</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E118" s="0" t="s">
         <v>16</v>
@@ -6464,24 +6534,24 @@
         <v>1</v>
       </c>
       <c r="L118" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M118" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E119" s="0" t="s">
         <v>16</v>
@@ -6493,10 +6563,10 @@
         <v>1</v>
       </c>
       <c r="L119" s="0" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M119" s="0" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6504,13 +6574,13 @@
         <v>102</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E120" s="0" t="s">
         <v>16</v>
@@ -6518,32 +6588,28 @@
       <c r="F120" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H120" s="0" t="s">
-        <v>279</v>
-      </c>
       <c r="J120" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120" s="0" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="M120" s="0" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>14</v>
+        <v>282</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>14</v>
+        <v>282</v>
       </c>
       <c r="E121" s="0" t="s">
         <v>16</v>
@@ -6552,58 +6618,60 @@
         <v>16</v>
       </c>
       <c r="J121" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121" s="0" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="M121" s="0" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>276</v>
+        <v>102</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="H122" s="0" t="s">
+        <v>284</v>
       </c>
       <c r="J122" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L122" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M122" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="E123" s="0" t="s">
         <v>16</v>
@@ -6611,28 +6679,29 @@
       <c r="F123" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J123" s="5" t="b">
+      <c r="J123" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L123" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M123" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>19</v>
+        <v>281</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>20</v>
+        <v>282</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>20</v>
+        <v>282</v>
       </c>
       <c r="E124" s="0" t="s">
         <v>22</v>
@@ -6640,21 +6709,82 @@
       <c r="F124" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J124" s="5" t="b">
+      <c r="J124" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L124" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M124" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J125" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L125" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M125" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J126" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L126" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="M124" s="0" t="n">
+      <c r="M126" s="0" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H97" r:id="rId1" display="https://pubchem.ncbi.nlm.nih.gov/compound/"/>
-    <hyperlink ref="H99" r:id="rId2" display="https://www.ebi.ac.uk/chebi/searchId.do?chebiId=${chebi_id}"/>
-    <hyperlink ref="H100" r:id="rId3" display="https://www.ebi.ac.uk/chembl/compound_report_card/${chembl_id}"/>
+    <hyperlink ref="H99" r:id="rId1" display="https://pubchem.ncbi.nlm.nih.gov/compound/${pubchem_cid}"/>
+    <hyperlink ref="H101" r:id="rId2" display="https://www.ebi.ac.uk/chebi/searchId.do?chebiId=${chebi_id}"/>
+    <hyperlink ref="H102" r:id="rId3" display="https://www.ebi.ac.uk/chembl/compound_report_card/${chembl_id}"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6673,14 +6803,14 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6709,7 +6839,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6723,7 +6853,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>892</v>
+        <v>901</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6737,7 +6867,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>893</v>
+        <v>902</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6751,7 +6881,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6765,7 +6895,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>892</v>
+        <v>901</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6779,7 +6909,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>893</v>
+        <v>902</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6793,7 +6923,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6807,7 +6937,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>892</v>
+        <v>901</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6821,7 +6951,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>893</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
@@ -6840,85 +6970,127 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="6" width="13.8178137651822"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="C1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>894</v>
+        <v>903</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>477</v>
+        <v>904</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>906</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>895</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>477</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>896</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="B5" s="0" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>573</v>
+        <v>909</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>912</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>909</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>916</v>
       </c>
     </row>
   </sheetData>
@@ -6939,7 +7111,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6973,7 +7145,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>23</v>
@@ -6987,7 +7159,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>23</v>
@@ -7001,7 +7173,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>23</v>
@@ -7015,7 +7187,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>23</v>
@@ -7029,7 +7201,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>31</v>
@@ -7043,7 +7215,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>31</v>
@@ -7057,7 +7229,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>31</v>
@@ -7071,7 +7243,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>31</v>
@@ -7095,8 +7267,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7140,8 +7312,8 @@
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>898</v>
+      <c r="D2" s="5" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7154,8 +7326,8 @@
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>898</v>
+      <c r="D3" s="5" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7168,8 +7340,8 @@
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>898</v>
+      <c r="D4" s="5" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7182,8 +7354,8 @@
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>898</v>
+      <c r="D5" s="5" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7196,8 +7368,8 @@
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>898</v>
+      <c r="D6" s="5" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7210,8 +7382,8 @@
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>898</v>
+      <c r="D7" s="5" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7224,8 +7396,8 @@
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>898</v>
+      <c r="D8" s="5" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7238,8 +7410,8 @@
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>898</v>
+      <c r="D9" s="5" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7252,8 +7424,8 @@
       <c r="C10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>899</v>
+      <c r="D10" s="5" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7266,8 +7438,8 @@
       <c r="C11" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>899</v>
+      <c r="D11" s="5" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7280,8 +7452,8 @@
       <c r="C12" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>899</v>
+      <c r="D12" s="5" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7294,8 +7466,8 @@
       <c r="C13" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>899</v>
+      <c r="D13" s="5" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7308,8 +7480,8 @@
       <c r="C14" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>899</v>
+      <c r="D14" s="5" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7322,8 +7494,8 @@
       <c r="C15" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>899</v>
+      <c r="D15" s="5" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7336,8 +7508,8 @@
       <c r="C16" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>899</v>
+      <c r="D16" s="5" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7350,8 +7522,8 @@
       <c r="C17" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>899</v>
+      <c r="D17" s="5" t="s">
+        <v>920</v>
       </c>
     </row>
   </sheetData>
@@ -7372,8 +7544,8 @@
   </sheetPr>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7389,19 +7561,19 @@
         <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7772,10 +7944,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7805,10 +7977,10 @@
         <v>23</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7819,10 +7991,10 @@
         <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7833,10 +8005,10 @@
         <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7847,10 +8019,10 @@
         <v>31</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7861,10 +8033,10 @@
         <v>39</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7878,7 +8050,7 @@
         <v>99</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7889,24 +8061,24 @@
         <v>45</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7917,10 +8089,10 @@
         <v>52</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7931,94 +8103,108 @@
         <v>56</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>59</v>
+        <v>303</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>62</v>
+        <v>159</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>65</v>
+        <v>193</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>13</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>145</v>
+        <v>204</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>308</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -8039,7 +8225,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -8064,10 +8250,10 @@
         <v>199</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8075,10 +8261,10 @@
         <v>199</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8086,10 +8272,10 @@
         <v>199</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8097,10 +8283,10 @@
         <v>199</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8108,10 +8294,10 @@
         <v>199</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8119,10 +8305,10 @@
         <v>199</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8130,10 +8316,10 @@
         <v>140</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8141,10 +8327,10 @@
         <v>140</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8152,10 +8338,10 @@
         <v>140</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8163,10 +8349,10 @@
         <v>140</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8174,54 +8360,54 @@
         <v>140</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8229,10 +8415,10 @@
         <v>105</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8240,10 +8426,10 @@
         <v>105</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8251,10 +8437,10 @@
         <v>105</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8262,10 +8448,10 @@
         <v>105</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8273,10 +8459,10 @@
         <v>105</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -8297,7 +8483,7 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8325,10 +8511,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>23</v>
@@ -8339,10 +8525,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>18</v>
@@ -8353,10 +8539,10 @@
         <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>28</v>
@@ -8367,10 +8553,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>31</v>
@@ -8381,10 +8567,10 @@
         <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>23</v>
@@ -8395,10 +8581,10 @@
         <v>42</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>18</v>
@@ -8409,10 +8595,10 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>28</v>
@@ -8423,10 +8609,10 @@
         <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>23</v>
@@ -8437,10 +8623,10 @@
         <v>52</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>18</v>
@@ -8451,10 +8637,10 @@
         <v>56</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>28</v>
@@ -8465,10 +8651,10 @@
         <v>59</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>31</v>
@@ -8479,10 +8665,10 @@
         <v>62</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>39</v>
@@ -8493,10 +8679,10 @@
         <v>65</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>42</v>
@@ -8520,7 +8706,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8545,7 +8731,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>48</v>
@@ -8556,7 +8742,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>52</v>
@@ -8567,7 +8753,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>56</v>
@@ -8578,7 +8764,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>59</v>
@@ -8589,7 +8775,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>62</v>
@@ -8600,7 +8786,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>65</v>
@@ -8624,7 +8810,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8646,7 +8832,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8654,7 +8840,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8662,7 +8848,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -8683,7 +8869,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -8717,13 +8903,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>23</v>
@@ -8734,13 +8920,13 @@
         <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>39</v>
@@ -8754,13 +8940,13 @@
         <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>31</v>
@@ -8774,13 +8960,13 @@
         <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>28</v>
@@ -8794,13 +8980,13 @@
         <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>18</v>
@@ -8814,13 +9000,13 @@
         <v>42</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>23</v>
@@ -8831,13 +9017,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>42</v>
@@ -8864,7 +9050,7 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -8878,79 +9064,79 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>138</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>383</v>
+      <c r="B2" s="5" t="s">
+        <v>392</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>393</v>
+      </c>
+      <c r="D2" s="5"/>
       <c r="H2" s="0" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8958,32 +9144,32 @@
         <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="D3" s="6"/>
+        <v>399</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="H3" s="0" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8991,32 +9177,32 @@
         <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>405</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="H4" s="0" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9024,32 +9210,32 @@
         <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>411</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="H5" s="0" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9057,32 +9243,32 @@
         <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>418</v>
+      </c>
+      <c r="D6" s="5"/>
       <c r="H6" s="0" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9090,32 +9276,32 @@
         <v>42</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>424</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="H7" s="0" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9123,32 +9309,32 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>430</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="H8" s="0" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9156,32 +9342,32 @@
         <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>434</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="H9" s="0" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9189,32 +9375,32 @@
         <v>52</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>438</v>
+      </c>
+      <c r="D10" s="5"/>
       <c r="H10" s="0" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9222,32 +9408,32 @@
         <v>56</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>442</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="H11" s="0" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9255,32 +9441,32 @@
         <v>59</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>446</v>
+      </c>
+      <c r="D12" s="5"/>
       <c r="H12" s="0" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9288,32 +9474,32 @@
         <v>62</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>450</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="H13" s="0" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9321,32 +9507,32 @@
         <v>65</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>454</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="H14" s="0" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9354,32 +9540,32 @@
         <v>145</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>458</v>
+      </c>
+      <c r="D15" s="5"/>
       <c r="H15" s="0" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9387,2837 +9573,2837 @@
         <v>148</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>462</v>
+      </c>
+      <c r="D16" s="5"/>
       <c r="H16" s="0" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>467</v>
+      </c>
+      <c r="D17" s="5"/>
       <c r="H17" s="0" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>472</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="H18" s="0" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>477</v>
+      </c>
+      <c r="D19" s="5"/>
       <c r="H19" s="0" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>482</v>
+      </c>
+      <c r="D20" s="5"/>
       <c r="H20" s="0" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>487</v>
+      </c>
+      <c r="D21" s="5"/>
       <c r="H21" s="0" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>492</v>
+      </c>
+      <c r="D22" s="5"/>
       <c r="H22" s="0" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>497</v>
+      </c>
+      <c r="D23" s="5"/>
       <c r="H23" s="0" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>502</v>
+      </c>
+      <c r="D24" s="5"/>
       <c r="H24" s="0" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>507</v>
+      </c>
+      <c r="D25" s="5"/>
       <c r="H25" s="0" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="D26" s="6"/>
+        <v>512</v>
+      </c>
+      <c r="D26" s="5"/>
       <c r="H26" s="0" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>516</v>
+      </c>
+      <c r="D27" s="5"/>
       <c r="H27" s="0" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>520</v>
+      </c>
+      <c r="D28" s="5"/>
       <c r="H28" s="0" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>525</v>
+      </c>
+      <c r="D29" s="5"/>
       <c r="H29" s="0" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>530</v>
+      </c>
+      <c r="D30" s="5"/>
       <c r="H30" s="0" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="D31" s="6"/>
+        <v>535</v>
+      </c>
+      <c r="D31" s="5"/>
       <c r="H31" s="0" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="D32" s="6"/>
+        <v>540</v>
+      </c>
+      <c r="D32" s="5"/>
       <c r="H32" s="0" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="D33" s="6"/>
+        <v>545</v>
+      </c>
+      <c r="D33" s="5"/>
       <c r="H33" s="0" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="D34" s="6"/>
+        <v>550</v>
+      </c>
+      <c r="D34" s="5"/>
       <c r="H34" s="0" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>546</v>
-      </c>
-      <c r="D35" s="6"/>
+        <v>555</v>
+      </c>
+      <c r="D35" s="5"/>
       <c r="H35" s="0" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>551</v>
-      </c>
-      <c r="D36" s="6"/>
+        <v>560</v>
+      </c>
+      <c r="D36" s="5"/>
       <c r="H36" s="0" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>556</v>
-      </c>
-      <c r="D37" s="6"/>
+        <v>565</v>
+      </c>
+      <c r="D37" s="5"/>
       <c r="H37" s="0" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>561</v>
-      </c>
-      <c r="D38" s="6"/>
+        <v>570</v>
+      </c>
+      <c r="D38" s="5"/>
       <c r="H38" s="0" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>566</v>
-      </c>
-      <c r="D39" s="6"/>
+        <v>575</v>
+      </c>
+      <c r="D39" s="5"/>
       <c r="H39" s="0" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>570</v>
-      </c>
-      <c r="D40" s="6"/>
+        <v>579</v>
+      </c>
+      <c r="D40" s="5"/>
       <c r="H40" s="0" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>574</v>
-      </c>
-      <c r="D41" s="6"/>
+        <v>583</v>
+      </c>
+      <c r="D41" s="5"/>
       <c r="H41" s="0" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>579</v>
-      </c>
-      <c r="D42" s="6"/>
+        <v>588</v>
+      </c>
+      <c r="D42" s="5"/>
       <c r="H42" s="0" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>584</v>
-      </c>
-      <c r="D43" s="6"/>
+        <v>593</v>
+      </c>
+      <c r="D43" s="5"/>
       <c r="H43" s="0" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="D44" s="6"/>
+        <v>598</v>
+      </c>
+      <c r="D44" s="5"/>
       <c r="H44" s="0" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>594</v>
-      </c>
-      <c r="D45" s="6"/>
+        <v>603</v>
+      </c>
+      <c r="D45" s="5"/>
       <c r="H45" s="0" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>599</v>
-      </c>
-      <c r="D46" s="6"/>
+        <v>608</v>
+      </c>
+      <c r="D46" s="5"/>
       <c r="H46" s="0" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="D47" s="6"/>
+        <v>613</v>
+      </c>
+      <c r="D47" s="5"/>
       <c r="H47" s="0" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>609</v>
-      </c>
-      <c r="D48" s="6"/>
+        <v>618</v>
+      </c>
+      <c r="D48" s="5"/>
       <c r="H48" s="0" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="D49" s="6"/>
+        <v>623</v>
+      </c>
+      <c r="D49" s="5"/>
       <c r="H49" s="0" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>619</v>
-      </c>
-      <c r="D50" s="6"/>
+        <v>628</v>
+      </c>
+      <c r="D50" s="5"/>
       <c r="H50" s="0" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="D51" s="6"/>
+        <v>633</v>
+      </c>
+      <c r="D51" s="5"/>
       <c r="H51" s="0" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="D52" s="6"/>
+        <v>638</v>
+      </c>
+      <c r="D52" s="5"/>
       <c r="H52" s="0" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="D53" s="6"/>
+        <v>642</v>
+      </c>
+      <c r="D53" s="5"/>
       <c r="H53" s="0" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>637</v>
-      </c>
-      <c r="D54" s="6"/>
+        <v>646</v>
+      </c>
+      <c r="D54" s="5"/>
       <c r="H54" s="0" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="D55" s="6"/>
+        <v>651</v>
+      </c>
+      <c r="D55" s="5"/>
       <c r="H55" s="0" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>647</v>
-      </c>
-      <c r="D56" s="6"/>
+        <v>656</v>
+      </c>
+      <c r="D56" s="5"/>
       <c r="H56" s="0" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>652</v>
-      </c>
-      <c r="D57" s="6"/>
+        <v>661</v>
+      </c>
+      <c r="D57" s="5"/>
       <c r="H57" s="0" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>657</v>
-      </c>
-      <c r="D58" s="6"/>
+        <v>666</v>
+      </c>
+      <c r="D58" s="5"/>
       <c r="H58" s="0" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>662</v>
-      </c>
-      <c r="D59" s="6"/>
+        <v>671</v>
+      </c>
+      <c r="D59" s="5"/>
       <c r="H59" s="0" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>667</v>
-      </c>
-      <c r="D60" s="6"/>
+        <v>676</v>
+      </c>
+      <c r="D60" s="5"/>
       <c r="H60" s="0" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="D61" s="6"/>
+        <v>681</v>
+      </c>
+      <c r="D61" s="5"/>
       <c r="H61" s="0" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="D62" s="6"/>
+        <v>686</v>
+      </c>
+      <c r="D62" s="5"/>
       <c r="H62" s="0" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="D63" s="6"/>
+        <v>691</v>
+      </c>
+      <c r="D63" s="5"/>
       <c r="H63" s="0" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>687</v>
-      </c>
-      <c r="D64" s="6"/>
+        <v>696</v>
+      </c>
+      <c r="D64" s="5"/>
       <c r="H64" s="0" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="D65" s="6"/>
+        <v>701</v>
+      </c>
+      <c r="D65" s="5"/>
       <c r="H65" s="0" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>696</v>
-      </c>
-      <c r="D66" s="6"/>
+        <v>705</v>
+      </c>
+      <c r="D66" s="5"/>
       <c r="H66" s="0" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>700</v>
-      </c>
-      <c r="D67" s="6"/>
+        <v>709</v>
+      </c>
+      <c r="D67" s="5"/>
       <c r="H67" s="0" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="D68" s="6"/>
+        <v>714</v>
+      </c>
+      <c r="D68" s="5"/>
       <c r="H68" s="0" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="D69" s="6"/>
+        <v>719</v>
+      </c>
+      <c r="D69" s="5"/>
       <c r="H69" s="0" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="D70" s="6"/>
+        <v>724</v>
+      </c>
+      <c r="D70" s="5"/>
       <c r="H70" s="0" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="D71" s="6"/>
+        <v>729</v>
+      </c>
+      <c r="D71" s="5"/>
       <c r="H71" s="0" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>725</v>
-      </c>
-      <c r="D72" s="6"/>
+        <v>734</v>
+      </c>
+      <c r="D72" s="5"/>
       <c r="H72" s="0" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>730</v>
-      </c>
-      <c r="D73" s="6"/>
+        <v>739</v>
+      </c>
+      <c r="D73" s="5"/>
       <c r="H73" s="0" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L73" s="0" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>735</v>
-      </c>
-      <c r="D74" s="6"/>
+        <v>744</v>
+      </c>
+      <c r="D74" s="5"/>
       <c r="H74" s="0" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="D75" s="6"/>
+        <v>749</v>
+      </c>
+      <c r="D75" s="5"/>
       <c r="H75" s="0" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>745</v>
-      </c>
-      <c r="D76" s="6"/>
+        <v>754</v>
+      </c>
+      <c r="D76" s="5"/>
       <c r="H76" s="0" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>750</v>
-      </c>
-      <c r="D77" s="6"/>
+        <v>759</v>
+      </c>
+      <c r="D77" s="5"/>
       <c r="H77" s="0" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>755</v>
-      </c>
-      <c r="D78" s="6"/>
+        <v>764</v>
+      </c>
+      <c r="D78" s="5"/>
       <c r="H78" s="0" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>759</v>
-      </c>
-      <c r="D79" s="6"/>
+        <v>768</v>
+      </c>
+      <c r="D79" s="5"/>
       <c r="H79" s="0" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>763</v>
-      </c>
-      <c r="D80" s="6"/>
+        <v>772</v>
+      </c>
+      <c r="D80" s="5"/>
       <c r="H80" s="0" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>768</v>
-      </c>
-      <c r="D81" s="6"/>
+        <v>777</v>
+      </c>
+      <c r="D81" s="5"/>
       <c r="H81" s="0" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>773</v>
-      </c>
-      <c r="D82" s="6"/>
+        <v>782</v>
+      </c>
+      <c r="D82" s="5"/>
       <c r="H82" s="0" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>778</v>
-      </c>
-      <c r="D83" s="6"/>
+        <v>787</v>
+      </c>
+      <c r="D83" s="5"/>
       <c r="H83" s="0" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>783</v>
-      </c>
-      <c r="D84" s="6"/>
+        <v>792</v>
+      </c>
+      <c r="D84" s="5"/>
       <c r="H84" s="0" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>788</v>
-      </c>
-      <c r="D85" s="6"/>
+        <v>797</v>
+      </c>
+      <c r="D85" s="5"/>
       <c r="H85" s="0" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>793</v>
-      </c>
-      <c r="D86" s="6"/>
+        <v>802</v>
+      </c>
+      <c r="D86" s="5"/>
       <c r="H86" s="0" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>798</v>
-      </c>
-      <c r="D87" s="6"/>
+        <v>807</v>
+      </c>
+      <c r="D87" s="5"/>
       <c r="H87" s="0" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>803</v>
-      </c>
-      <c r="D88" s="6"/>
+        <v>812</v>
+      </c>
+      <c r="D88" s="5"/>
       <c r="H88" s="0" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="D89" s="6"/>
+        <v>817</v>
+      </c>
+      <c r="D89" s="5"/>
       <c r="H89" s="0" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N89" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>813</v>
-      </c>
-      <c r="D90" s="6"/>
+        <v>822</v>
+      </c>
+      <c r="D90" s="5"/>
       <c r="H90" s="0" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="N90" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="D91" s="6"/>
+        <v>827</v>
+      </c>
+      <c r="D91" s="5"/>
       <c r="H91" s="0" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>822</v>
-      </c>
-      <c r="D92" s="6"/>
+        <v>831</v>
+      </c>
+      <c r="D92" s="5"/>
       <c r="H92" s="0" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="N92" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>826</v>
-      </c>
-      <c r="D93" s="6"/>
+        <v>835</v>
+      </c>
+      <c r="D93" s="5"/>
       <c r="H93" s="0" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L93" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="N93" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>831</v>
-      </c>
-      <c r="D94" s="6"/>
+        <v>840</v>
+      </c>
+      <c r="D94" s="5"/>
       <c r="H94" s="0" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="K94" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L94" s="0" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="N94" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="D95" s="6"/>
+        <v>845</v>
+      </c>
+      <c r="D95" s="5"/>
       <c r="H95" s="0" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N95" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>841</v>
-      </c>
-      <c r="D96" s="6"/>
+        <v>850</v>
+      </c>
+      <c r="D96" s="5"/>
       <c r="H96" s="0" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L96" s="0" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>846</v>
-      </c>
-      <c r="D97" s="6"/>
+        <v>855</v>
+      </c>
+      <c r="D97" s="5"/>
       <c r="H97" s="0" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L97" s="0" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="N97" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>851</v>
-      </c>
-      <c r="D98" s="6"/>
+        <v>860</v>
+      </c>
+      <c r="D98" s="5"/>
       <c r="H98" s="0" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>854</v>
+        <v>863</v>
       </c>
       <c r="K98" s="0" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L98" s="0" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>855</v>
+        <v>864</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>856</v>
-      </c>
-      <c r="D99" s="6"/>
+        <v>865</v>
+      </c>
+      <c r="D99" s="5"/>
       <c r="H99" s="0" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>858</v>
+        <v>867</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>859</v>
+        <v>868</v>
       </c>
       <c r="K99" s="0" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="N99" s="0" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>861</v>
-      </c>
-      <c r="D100" s="6"/>
+        <v>870</v>
+      </c>
+      <c r="D100" s="5"/>
       <c r="H100" s="0" t="s">
-        <v>862</v>
+        <v>871</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>863</v>
+        <v>872</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>864</v>
+        <v>873</v>
       </c>
       <c r="K100" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>865</v>
+        <v>874</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>861</v>
+        <v>870</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>866</v>
-      </c>
-      <c r="D101" s="6"/>
+        <v>875</v>
+      </c>
+      <c r="D101" s="5"/>
       <c r="H101" s="0" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -12238,7 +12424,7 @@
   </sheetPr>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -12299,7 +12485,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>23</v>
@@ -12311,25 +12497,25 @@
         <v>18</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>872</v>
+        <v>881</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>18</v>
@@ -12338,7 +12524,7 @@
         <v>31</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12346,7 +12532,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>18</v>
@@ -12358,25 +12544,25 @@
         <v>18</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>879</v>
+        <v>888</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>18</v>
@@ -12385,7 +12571,7 @@
         <v>31</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12393,7 +12579,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>28</v>
@@ -12405,25 +12591,25 @@
         <v>18</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>892</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>883</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>873</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>874</v>
-      </c>
       <c r="J4" s="0" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>18</v>
@@ -12432,7 +12618,7 @@
         <v>31</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12440,7 +12626,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>31</v>
@@ -12452,25 +12638,25 @@
         <v>18</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>886</v>
+        <v>895</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>18</v>
@@ -12479,7 +12665,7 @@
         <v>31</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>887</v>
+        <v>896</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12487,7 +12673,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>23</v>
@@ -12499,25 +12685,25 @@
         <v>18</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>898</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>882</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="K6" s="0" t="s">
         <v>889</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>873</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>874</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>875</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>880</v>
-      </c>
       <c r="L6" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>18</v>
@@ -12526,7 +12712,7 @@
         <v>31</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12534,7 +12720,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>23</v>
@@ -12546,25 +12732,25 @@
         <v>18</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>18</v>
@@ -12573,7 +12759,7 @@
         <v>31</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12581,7 +12767,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>23</v>
@@ -12593,25 +12779,25 @@
         <v>18</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>872</v>
+        <v>881</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>18</v>
@@ -12620,7 +12806,7 @@
         <v>31</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
   </sheetData>
